--- a/biology/Médecine/Étienne_Lombard/Étienne_Lombard.xlsx
+++ b/biology/Médecine/Étienne_Lombard/Étienne_Lombard.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89tienne_Lombard</t>
+          <t>Étienne_Lombard</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Étienne Lombard (Nogent-sur-Marne, 9 août 1868[1] - Paris, 30 juin 1920[2]) était un oto-rhino-laryngologiste et chirurgien français. Il a découvert l'effet Lombard, par lequel la voix d'une personne s'élève involontairement lorsqu'elle parle dans un environnement bruyant[3],[4],[5],[6].
-Il travaillait à l'Hôpital Lariboisière, et fut le premier « oto-rhino-laryngologiste des Hôpitaux » de France[3]. Il a mis au point de nouvelles techniques chirurgicales, et une nouvelle forme de pince à os[6]. Pendant la Première Guerre mondiale, il a étudié les effets des explosions aériennes sur 600 aviateurs, mais n'a pas pu mener à terme ces recherches en raison d'une maladie qui a entraîné sa mort prématurée[6].
-Le « symptôme de la voix élevée » a été découvert en 1909[4]. Cela a été rendu possible grâce à l'invention d'un appareil par le médecin viennois Robert Bárány qui fournissait un bruit intense à une seule oreille et permettait ainsi l'examen monaural de l'autre oreille. À l'aide de cet appareil, Lombard a demandé à une personne de commencer à parler alors qu'elle recevait du bruit. Il a constaté que lorsque le bruit démarrait, la personne parlait plus fort, tandis que lorsque le bruit s'interrompait, la voix revenait à un niveau normal[3] p. 678-680.
-Cette découverte fut communiquée à l'Académie française des sciences en août 1909[4], puis, en avril de l'année suivante, à l'Académie française de médecine[7]. En 1910, des publications allemandes attribuèrent pourtant cette découverte à Robert Bárány, ce qui provoqua une dispute entre les intéressés. La priorité chronologique entre les deux chercheursa été établie lorsque le médecin anglais Donald Schearer a décrit comment il avait apporté la nouvelle de la découverte, de Paris à Vienne, en novembre 1909[3] pp. 677-678. (Notons que Bárány reçut le prix Nobel de physiologie ou médecine en 1914, pour d'autres travaux.)
-La découverte de Lombard est importante pour quatre raisons principales[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Étienne Lombard (Nogent-sur-Marne, 9 août 1868 - Paris, 30 juin 1920) était un oto-rhino-laryngologiste et chirurgien français. Il a découvert l'effet Lombard, par lequel la voix d'une personne s'élève involontairement lorsqu'elle parle dans un environnement bruyant.
+Il travaillait à l'Hôpital Lariboisière, et fut le premier « oto-rhino-laryngologiste des Hôpitaux » de France. Il a mis au point de nouvelles techniques chirurgicales, et une nouvelle forme de pince à os. Pendant la Première Guerre mondiale, il a étudié les effets des explosions aériennes sur 600 aviateurs, mais n'a pas pu mener à terme ces recherches en raison d'une maladie qui a entraîné sa mort prématurée.
+Le « symptôme de la voix élevée » a été découvert en 1909. Cela a été rendu possible grâce à l'invention d'un appareil par le médecin viennois Robert Bárány qui fournissait un bruit intense à une seule oreille et permettait ainsi l'examen monaural de l'autre oreille. À l'aide de cet appareil, Lombard a demandé à une personne de commencer à parler alors qu'elle recevait du bruit. Il a constaté que lorsque le bruit démarrait, la personne parlait plus fort, tandis que lorsque le bruit s'interrompait, la voix revenait à un niveau normal p. 678-680.
+Cette découverte fut communiquée à l'Académie française des sciences en août 1909, puis, en avril de l'année suivante, à l'Académie française de médecine. En 1910, des publications allemandes attribuèrent pourtant cette découverte à Robert Bárány, ce qui provoqua une dispute entre les intéressés. La priorité chronologique entre les deux chercheursa été établie lorsque le médecin anglais Donald Schearer a décrit comment il avait apporté la nouvelle de la découverte, de Paris à Vienne, en novembre 1909 pp. 677-678. (Notons que Bárány reçut le prix Nobel de physiologie ou médecine en 1914, pour d'autres travaux.)
+La découverte de Lombard est importante pour quatre raisons principales.
 Elle fournit un moyen de détecter la simulation par une perte auditive simulée
 Elle sous-tend la recherche sur la communication vocale dans le bruit (qui constitue un problème pratique important)
 Elle aide les chercheurs à comprendre comment l'imitation et la parole sont modifiées par le feedback auditif.
